--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>3384.335309437429</v>
+        <v>4271.803721653347</v>
       </c>
       <c r="R2">
-        <v>13537.34123774972</v>
+        <v>17087.21488661339</v>
       </c>
       <c r="S2">
-        <v>0.005320354692976206</v>
+        <v>0.007151521396954584</v>
       </c>
       <c r="T2">
-        <v>0.00290194684436169</v>
+        <v>0.00399261150392684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>2442.24677885886</v>
+        <v>2517.109457338512</v>
       </c>
       <c r="R3">
-        <v>14653.48067315316</v>
+        <v>15102.65674403107</v>
       </c>
       <c r="S3">
-        <v>0.00383934153187311</v>
+        <v>0.004213948794366888</v>
       </c>
       <c r="T3">
-        <v>0.003141209285601227</v>
+        <v>0.003528898153163434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H4">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I4">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J4">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1738.298891346278</v>
+        <v>1644.940553299734</v>
       </c>
       <c r="R4">
-        <v>10429.79334807767</v>
+        <v>9869.643319798404</v>
       </c>
       <c r="S4">
-        <v>0.002732698098376913</v>
+        <v>0.002753831479665531</v>
       </c>
       <c r="T4">
-        <v>0.002235793968862803</v>
+        <v>0.002306148293900916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H5">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I5">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J5">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>2877.046618837084</v>
+        <v>3646.23677547119</v>
       </c>
       <c r="R5">
-        <v>11508.18647534834</v>
+        <v>14584.94710188476</v>
       </c>
       <c r="S5">
-        <v>0.004522869952559647</v>
+        <v>0.006104245891721932</v>
       </c>
       <c r="T5">
-        <v>0.002466964881799371</v>
+        <v>0.003407929728136687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H6">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I6">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J6">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>2503.29981851883</v>
+        <v>1268.518135788246</v>
       </c>
       <c r="R6">
-        <v>15019.79891111298</v>
+        <v>7611.108814729475</v>
       </c>
       <c r="S6">
-        <v>0.003935320149940177</v>
+        <v>0.002123654358118177</v>
       </c>
       <c r="T6">
-        <v>0.003219735492188625</v>
+        <v>0.001778417419864887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H7">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I7">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J7">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1637.613239200763</v>
+        <v>1828.259593199556</v>
       </c>
       <c r="R7">
-        <v>9825.679435204578</v>
+        <v>10969.55755919733</v>
       </c>
       <c r="S7">
-        <v>0.00257441491041561</v>
+        <v>0.003060729952005767</v>
       </c>
       <c r="T7">
-        <v>0.002106292434380654</v>
+        <v>0.002563155083755098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J8">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>122268.0175169336</v>
+        <v>149740.1346446123</v>
       </c>
       <c r="R8">
-        <v>733608.1051016016</v>
+        <v>898440.8078676739</v>
       </c>
       <c r="S8">
-        <v>0.1922118115729045</v>
+        <v>0.2506832819742334</v>
       </c>
       <c r="T8">
-        <v>0.1572606975187421</v>
+        <v>0.209930356052352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J9">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>88232.5906376655</v>
+        <v>88232.59063766552</v>
       </c>
       <c r="R9">
-        <v>794093.3157389895</v>
+        <v>794093.3157389897</v>
       </c>
       <c r="S9">
-        <v>0.1387063144610763</v>
+        <v>0.1477121377687691</v>
       </c>
       <c r="T9">
-        <v>0.1702266753320411</v>
+        <v>0.1855484424260833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J10">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>62800.621056701</v>
+        <v>57660.33179028008</v>
       </c>
       <c r="R10">
-        <v>565205.589510309</v>
+        <v>518942.9861125208</v>
       </c>
       <c r="S10">
-        <v>0.09872590875647597</v>
+        <v>0.09653044086821722</v>
       </c>
       <c r="T10">
-        <v>0.1211609095234476</v>
+        <v>0.121256609107094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J11">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>103940.8788508847</v>
+        <v>127812.0487927932</v>
       </c>
       <c r="R11">
-        <v>623645.2731053081</v>
+        <v>766872.2927567592</v>
       </c>
       <c r="S11">
-        <v>0.1634005770776596</v>
+        <v>0.2139729868900654</v>
       </c>
       <c r="T11">
-        <v>0.1336883957126185</v>
+        <v>0.1791879576877158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J12">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>90438.29233093187</v>
+        <v>44465.54402517061</v>
       </c>
       <c r="R12">
-        <v>813944.6309783868</v>
+        <v>400189.8962265355</v>
       </c>
       <c r="S12">
-        <v>0.1421737945663576</v>
+        <v>0.07444075389310192</v>
       </c>
       <c r="T12">
-        <v>0.1744821240648215</v>
+        <v>0.09350867265566597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J13">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>59163.08696074346</v>
+        <v>64086.23979218055</v>
       </c>
       <c r="R13">
-        <v>532467.7826466911</v>
+        <v>576776.1581296248</v>
       </c>
       <c r="S13">
-        <v>0.09300751213533689</v>
+        <v>0.1072881960378921</v>
       </c>
       <c r="T13">
-        <v>0.1141430340299736</v>
+        <v>0.1347699516521665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H14">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I14">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>103.9142531709705</v>
+        <v>11.87089496117983</v>
       </c>
       <c r="R14">
-        <v>623.4855190258229</v>
+        <v>71.225369767079</v>
       </c>
       <c r="S14">
-        <v>0.0001633587200959681</v>
+        <v>1.987332865635981E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001336541498560139</v>
+        <v>1.66425735610237E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H15">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I15">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>74.98791546352798</v>
+        <v>6.994783449997333</v>
       </c>
       <c r="R15">
-        <v>674.8912391717519</v>
+        <v>62.95305104997599</v>
       </c>
       <c r="S15">
-        <v>0.0001178849822712167</v>
+        <v>1.171012218004221E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001446737928375788</v>
+        <v>1.470965733721417E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H16">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I16">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>53.37356218175699</v>
+        <v>4.571117447795221</v>
       </c>
       <c r="R16">
-        <v>480.362059635813</v>
+        <v>41.140057030157</v>
       </c>
       <c r="S16">
-        <v>8.390607196713357E-05</v>
+        <v>7.652609147324666E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001029733341746616</v>
+        <v>9.612816720616896E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H17">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I17">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>88.33821811356449</v>
+        <v>10.1325099619645</v>
       </c>
       <c r="R17">
-        <v>530.029308681387</v>
+        <v>60.79505977178699</v>
       </c>
       <c r="S17">
-        <v>0.0001388723664582113</v>
+        <v>1.696305975635949E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001136203079123118</v>
+        <v>1.420541946932025E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H18">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I18">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>76.86251725088398</v>
+        <v>3.525078989459221</v>
       </c>
       <c r="R18">
-        <v>691.7626552579559</v>
+        <v>31.725710905133</v>
       </c>
       <c r="S18">
-        <v>0.0001208319557549047</v>
+        <v>5.901412953803876E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001482904522547726</v>
+        <v>7.41305351226822E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H19">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I19">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>50.28206166803501</v>
+        <v>5.08054185229311</v>
       </c>
       <c r="R19">
-        <v>452.538555012315</v>
+        <v>45.72487667063799</v>
       </c>
       <c r="S19">
-        <v>7.904606911202249E-05</v>
+        <v>8.505447846450912E-06</v>
       </c>
       <c r="T19">
-        <v>9.700891841360453E-05</v>
+        <v>1.06841091320183E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H20">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I20">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J20">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>18346.63987821179</v>
+        <v>14051.42069519957</v>
       </c>
       <c r="R20">
-        <v>73386.55951284715</v>
+        <v>56205.68278079827</v>
       </c>
       <c r="S20">
-        <v>0.02884189143557826</v>
+        <v>0.02352379517110332</v>
       </c>
       <c r="T20">
-        <v>0.01573158946477652</v>
+        <v>0.01313306218396569</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H21">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I21">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J21">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>13239.53392576057</v>
+        <v>8279.632264386861</v>
       </c>
       <c r="R21">
-        <v>79437.20355456341</v>
+        <v>49677.79358632116</v>
       </c>
       <c r="S21">
-        <v>0.02081324987459557</v>
+        <v>0.01386111608956624</v>
       </c>
       <c r="T21">
-        <v>0.01702864234058429</v>
+        <v>0.01160775067666746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H22">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I22">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J22">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>9423.399528791455</v>
+        <v>5410.771008941167</v>
       </c>
       <c r="R22">
-        <v>56540.39717274873</v>
+        <v>32464.626053647</v>
       </c>
       <c r="S22">
-        <v>0.01481408410301087</v>
+        <v>0.009058291805010131</v>
       </c>
       <c r="T22">
-        <v>0.01212034359427058</v>
+        <v>0.007585708982569241</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H23">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I23">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J23">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>15596.60417850412</v>
+        <v>11993.71746102226</v>
       </c>
       <c r="R23">
-        <v>62386.41671401646</v>
+        <v>47974.86984408904</v>
       </c>
       <c r="S23">
-        <v>0.02451868938760391</v>
+        <v>0.02007894852863957</v>
       </c>
       <c r="T23">
-        <v>0.01337353191699316</v>
+        <v>0.01120984423207345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H24">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I24">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J24">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>13570.50530705016</v>
+        <v>4172.589179390526</v>
       </c>
       <c r="R24">
-        <v>81423.03184230099</v>
+        <v>25035.53507634316</v>
       </c>
       <c r="S24">
-        <v>0.02133355444866498</v>
+        <v>0.006985424130292949</v>
       </c>
       <c r="T24">
-        <v>0.01745433657638994</v>
+        <v>0.005849821987729604</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H25">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I25">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J25">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>8877.577903001154</v>
+        <v>6013.769910322222</v>
       </c>
       <c r="R25">
-        <v>53265.46741800692</v>
+        <v>36082.61946193333</v>
       </c>
       <c r="S25">
-        <v>0.01395602354376207</v>
+        <v>0.01006778564568165</v>
       </c>
       <c r="T25">
-        <v>0.011418309723633</v>
+        <v>0.008431092048148422</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H26">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I26">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J26">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>3346.928185041398</v>
+        <v>22.95713336619817</v>
       </c>
       <c r="R26">
-        <v>20081.56911024839</v>
+        <v>137.742800197189</v>
       </c>
       <c r="S26">
-        <v>0.005261548708452099</v>
+        <v>3.843304636140049E-05</v>
       </c>
       <c r="T26">
-        <v>0.004304807353663453</v>
+        <v>3.218508646960612E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H27">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I27">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J27">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>2415.252577425029</v>
+        <v>13.52721737109067</v>
       </c>
       <c r="R27">
-        <v>21737.27319682526</v>
+        <v>121.744956339816</v>
       </c>
       <c r="S27">
-        <v>0.003796905214797454</v>
+        <v>2.264621475472861E-05</v>
       </c>
       <c r="T27">
-        <v>0.004659734156855806</v>
+        <v>2.844701822110456E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H28">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I28">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J28">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>1719.085439687174</v>
+        <v>8.84008772925411</v>
       </c>
       <c r="R28">
-        <v>15471.76895718457</v>
+        <v>79.560789563287</v>
       </c>
       <c r="S28">
-        <v>0.002702493532825229</v>
+        <v>1.479938701917885E-05</v>
       </c>
       <c r="T28">
-        <v>0.003316622541566238</v>
+        <v>1.859023403051731E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H29">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I29">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J29">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>2845.246566264306</v>
+        <v>19.5952692102695</v>
       </c>
       <c r="R29">
-        <v>17071.47939758583</v>
+        <v>117.571615261617</v>
       </c>
       <c r="S29">
-        <v>0.004472878582475638</v>
+        <v>3.280487498196426E-05</v>
       </c>
       <c r="T29">
-        <v>0.003659546206035125</v>
+        <v>2.747187220057422E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H30">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I30">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J30">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>2475.630796643021</v>
+        <v>6.81715310867811</v>
       </c>
       <c r="R30">
-        <v>22280.67716978719</v>
+        <v>61.35437797810299</v>
       </c>
       <c r="S30">
-        <v>0.003891822979321026</v>
+        <v>1.14127472842216E-05</v>
       </c>
       <c r="T30">
-        <v>0.00477622153919002</v>
+        <v>1.433611018279881E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H31">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I31">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J31">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1619.512668024926</v>
+        <v>9.825263997117554</v>
       </c>
       <c r="R31">
-        <v>14575.61401222433</v>
+        <v>88.42737597405798</v>
       </c>
       <c r="S31">
-        <v>0.002545959852037567</v>
+        <v>1.644869246916577E-05</v>
       </c>
       <c r="T31">
-        <v>0.00312451731433487</v>
+        <v>2.066200729135103E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H32">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I32">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J32">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>176.5730334512942</v>
+        <v>30.55880868488066</v>
       </c>
       <c r="R32">
-        <v>1059.438200707765</v>
+        <v>183.352852109284</v>
       </c>
       <c r="S32">
-        <v>0.0002775821782658401</v>
+        <v>5.115917968505861E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002271076195351327</v>
+        <v>4.284236556203422E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H33">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I33">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J33">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>127.4208619273733</v>
+        <v>18.00641400161066</v>
       </c>
       <c r="R33">
-        <v>1146.78775734636</v>
+        <v>162.057726014496</v>
       </c>
       <c r="S33">
-        <v>0.000200312356416913</v>
+        <v>3.014493722223297E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002458324020305985</v>
+        <v>3.786653035496178E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H34">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I34">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J34">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>90.693350459135</v>
+        <v>11.76725967335244</v>
       </c>
       <c r="R34">
-        <v>816.240154132215</v>
+        <v>105.905337060172</v>
       </c>
       <c r="S34">
-        <v>0.0001425747594783104</v>
+        <v>1.969983052145714E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001749742063766594</v>
+        <v>2.474592084664168E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H35">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I35">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J35">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>150.1059447189642</v>
+        <v>26.083748060942</v>
       </c>
       <c r="R35">
-        <v>900.635668313785</v>
+        <v>156.502488365652</v>
       </c>
       <c r="S35">
-        <v>0.000235974510327678</v>
+        <v>4.366738139794541E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001930657423552709</v>
+        <v>3.656848934061259E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H36">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I36">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J36">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>130.6062201819533</v>
+        <v>9.074481308296443</v>
       </c>
       <c r="R36">
-        <v>1175.45598163758</v>
+        <v>81.67033177466799</v>
       </c>
       <c r="S36">
-        <v>0.0002053199086211248</v>
+        <v>1.519179051078432E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002519778970398673</v>
+        <v>1.90831512529593E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H37">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I37">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J37">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>85.44021523498057</v>
+        <v>13.07865219829422</v>
       </c>
       <c r="R37">
-        <v>768.9619371148251</v>
+        <v>117.707869784648</v>
       </c>
       <c r="S37">
-        <v>0.0001343165521533056</v>
+        <v>2.189526184579187E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001648393600821688</v>
+        <v>2.750370953507991E-05</v>
       </c>
     </row>
   </sheetData>
